--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_task1" sheetId="1" state="visible" r:id="rId2"/>
@@ -110,6 +110,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -169,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,6 +180,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,30 +206,30 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -235,19 +240,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -258,19 +263,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -281,19 +286,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -304,19 +309,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -327,19 +332,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -367,30 +372,32 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -401,19 +408,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -424,19 +431,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -447,19 +454,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -470,19 +477,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -493,19 +500,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -516,19 +523,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -539,19 +546,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="n">
@@ -579,30 +586,30 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="23.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -613,19 +620,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -636,19 +643,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -659,19 +666,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -682,19 +689,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -705,19 +712,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -728,19 +735,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -751,19 +758,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="n">

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_task1" sheetId="1" state="visible" r:id="rId2"/>
@@ -110,7 +110,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -170,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -180,10 +179,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -206,30 +201,30 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F:F G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="26.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -240,19 +235,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -263,19 +258,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -286,19 +281,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -309,19 +304,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -332,19 +327,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -372,32 +367,30 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="15.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -408,19 +401,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -431,19 +424,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -454,19 +447,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -477,19 +470,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -500,19 +493,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -523,19 +516,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -546,19 +539,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="n">
@@ -586,30 +579,30 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="18.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -620,19 +613,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="n">
@@ -643,19 +636,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="n">
@@ -666,19 +659,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1" t="n">
@@ -689,19 +682,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="1" t="n">
@@ -712,19 +705,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="n">
@@ -735,19 +728,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="0" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -758,19 +751,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="n">
